--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N2">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O2">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P2">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q2">
-        <v>154.664287554784</v>
+        <v>241.69516391295</v>
       </c>
       <c r="R2">
-        <v>1391.978587993056</v>
+        <v>2175.256475216549</v>
       </c>
       <c r="S2">
-        <v>0.03573480543478345</v>
+        <v>0.01863094483334668</v>
       </c>
       <c r="T2">
-        <v>0.03573480543478346</v>
+        <v>0.01863094483334668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.533955</v>
       </c>
       <c r="O3">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P3">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q3">
-        <v>1205.24265582476</v>
+        <v>1049.20987178205</v>
       </c>
       <c r="R3">
-        <v>10847.18390242284</v>
+        <v>9442.888846038448</v>
       </c>
       <c r="S3">
-        <v>0.2784683684159724</v>
+        <v>0.08087779218790876</v>
       </c>
       <c r="T3">
-        <v>0.2784683684159724</v>
+        <v>0.08087779218790875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N4">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O4">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P4">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q4">
-        <v>62.25986276815201</v>
+        <v>1938.08056302663</v>
       </c>
       <c r="R4">
-        <v>560.3387649133681</v>
+        <v>17442.72506723967</v>
       </c>
       <c r="S4">
-        <v>0.01438498904686167</v>
+        <v>0.1493959228134806</v>
       </c>
       <c r="T4">
-        <v>0.01438498904686167</v>
+        <v>0.1493959228134806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N5">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O5">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P5">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q5">
-        <v>47.07452356013867</v>
+        <v>50.74412268320999</v>
       </c>
       <c r="R5">
-        <v>423.670712041248</v>
+        <v>456.69710414889</v>
       </c>
       <c r="S5">
-        <v>0.01087645355596928</v>
+        <v>0.003911584059116568</v>
       </c>
       <c r="T5">
-        <v>0.01087645355596928</v>
+        <v>0.003911584059116568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N6">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O6">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P6">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q6">
-        <v>421.9044295477387</v>
+        <v>1970.91938046696</v>
       </c>
       <c r="R6">
-        <v>3797.139865929648</v>
+        <v>17738.27442420264</v>
       </c>
       <c r="S6">
-        <v>0.09747998675273634</v>
+        <v>0.1519272858172662</v>
       </c>
       <c r="T6">
-        <v>0.09747998675273634</v>
+        <v>0.1519272858172661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N7">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O7">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P7">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q7">
-        <v>194.15920063554</v>
+        <v>348.5362998237749</v>
       </c>
       <c r="R7">
-        <v>1747.43280571986</v>
+        <v>3136.826698413975</v>
       </c>
       <c r="S7">
-        <v>0.04486000852411709</v>
+        <v>0.02686673770921738</v>
       </c>
       <c r="T7">
-        <v>0.0448600085241171</v>
+        <v>0.02686673770921738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.533955</v>
       </c>
       <c r="O8">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P8">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q8">
         <v>1513.012178353725</v>
@@ -948,10 +948,10 @@
         <v>13617.10960518352</v>
       </c>
       <c r="S8">
-        <v>0.3495777639991843</v>
+        <v>0.1166297495188715</v>
       </c>
       <c r="T8">
-        <v>0.3495777639991843</v>
+        <v>0.1166297495188714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N9">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O9">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P9">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q9">
-        <v>78.15847716274502</v>
+        <v>2794.807381586535</v>
       </c>
       <c r="R9">
-        <v>703.4262944647052</v>
+        <v>25153.26643427881</v>
       </c>
       <c r="S9">
-        <v>0.01805832502542225</v>
+        <v>0.2154362598869481</v>
       </c>
       <c r="T9">
-        <v>0.01805832502542225</v>
+        <v>0.2154362598869481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,43 +1039,43 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N10">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O10">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P10">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q10">
-        <v>59.09542538382</v>
+        <v>73.17551775334499</v>
       </c>
       <c r="R10">
-        <v>531.85882845438</v>
+        <v>658.579659780105</v>
       </c>
       <c r="S10">
-        <v>0.01365385352729575</v>
+        <v>0.005640696372829263</v>
       </c>
       <c r="T10">
-        <v>0.01365385352729575</v>
+        <v>0.005640696372829263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N11">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O11">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P11">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q11">
-        <v>529.6415098835701</v>
+        <v>2842.16256956772</v>
       </c>
       <c r="R11">
-        <v>4766.773588952131</v>
+        <v>25579.46312610948</v>
       </c>
       <c r="S11">
-        <v>0.1223723757119449</v>
+        <v>0.2190866096935664</v>
       </c>
       <c r="T11">
-        <v>0.1223723757119449</v>
+        <v>0.2190866096935664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N12">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O12">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P12">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q12">
-        <v>0.043645618492</v>
+        <v>0.9085960202383332</v>
       </c>
       <c r="R12">
-        <v>0.392810566428</v>
+        <v>8.177364182145</v>
       </c>
       <c r="S12">
-        <v>1.008421342476978E-05</v>
+        <v>7.003864725632489E-05</v>
       </c>
       <c r="T12">
-        <v>1.008421342476978E-05</v>
+        <v>7.003864725632489E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.533955</v>
       </c>
       <c r="O13">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P13">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q13">
-        <v>0.340114463255</v>
+        <v>3.944257296928333</v>
       </c>
       <c r="R13">
-        <v>3.061030169295</v>
+        <v>35.498315672355</v>
       </c>
       <c r="S13">
-        <v>7.858261504400725E-05</v>
+        <v>0.0003040410032120612</v>
       </c>
       <c r="T13">
-        <v>7.858261504400725E-05</v>
+        <v>0.0003040410032120611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N14">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O14">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P14">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q14">
-        <v>0.017569474251</v>
+        <v>7.285757223928111</v>
       </c>
       <c r="R14">
-        <v>0.158125268259</v>
+        <v>65.57181501535301</v>
       </c>
       <c r="S14">
-        <v>4.0593840625848E-06</v>
+        <v>0.000561618770978184</v>
       </c>
       <c r="T14">
-        <v>4.0593840625848E-06</v>
+        <v>0.000561618770978184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N15">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O15">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P15">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q15">
-        <v>0.01328423470266667</v>
+        <v>0.190760572839</v>
       </c>
       <c r="R15">
-        <v>0.119558112324</v>
+        <v>1.716845155551</v>
       </c>
       <c r="S15">
-        <v>3.069289943754105E-06</v>
+        <v>1.470467861831552E-05</v>
       </c>
       <c r="T15">
-        <v>3.069289943754105E-06</v>
+        <v>1.470467861831552E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N16">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O16">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P16">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q16">
-        <v>0.1190596747526667</v>
+        <v>7.409207020575111</v>
       </c>
       <c r="R16">
-        <v>1.071537072774</v>
+        <v>66.682863185176</v>
       </c>
       <c r="S16">
-        <v>2.750844671177321E-05</v>
+        <v>0.0005711348337482546</v>
       </c>
       <c r="T16">
-        <v>2.750844671177321E-05</v>
+        <v>0.0005711348337482545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N17">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O17">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P17">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q17">
-        <v>4.982496042351999</v>
+        <v>5.638558904659999</v>
       </c>
       <c r="R17">
-        <v>44.84246438116799</v>
+        <v>50.74703014193999</v>
       </c>
       <c r="S17">
-        <v>0.001151193526753616</v>
+        <v>0.0004346453532273902</v>
       </c>
       <c r="T17">
-        <v>0.001151193526753617</v>
+        <v>0.0004346453532273902</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.533955</v>
       </c>
       <c r="O18">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P18">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q18">
-        <v>38.82678320677999</v>
+        <v>24.47724468134</v>
       </c>
       <c r="R18">
-        <v>349.44104886102</v>
+        <v>220.29520213206</v>
       </c>
       <c r="S18">
-        <v>0.008970833315747455</v>
+        <v>0.001886815557032085</v>
       </c>
       <c r="T18">
-        <v>0.008970833315747457</v>
+        <v>0.001886815557032085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N19">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O19">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P19">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q19">
-        <v>2.005695850956</v>
+        <v>45.21390184099066</v>
       </c>
       <c r="R19">
-        <v>18.051262658604</v>
+        <v>406.925116568916</v>
       </c>
       <c r="S19">
-        <v>0.0004634111217812812</v>
+        <v>0.003485289888560796</v>
       </c>
       <c r="T19">
-        <v>0.0004634111217812812</v>
+        <v>0.003485289888560796</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N20">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O20">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P20">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q20">
-        <v>1.516501521082666</v>
+        <v>1.183820644908</v>
       </c>
       <c r="R20">
-        <v>13.648513689744</v>
+        <v>10.654385804172</v>
       </c>
       <c r="S20">
-        <v>0.0003503839681041224</v>
+        <v>9.125419297095043E-05</v>
       </c>
       <c r="T20">
-        <v>0.0003503839681041224</v>
+        <v>9.125419297095043E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N21">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O21">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P21">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q21">
-        <v>13.59161305888266</v>
+        <v>45.98000573607467</v>
       </c>
       <c r="R21">
-        <v>122.324517529944</v>
+        <v>413.820051624672</v>
       </c>
       <c r="S21">
-        <v>0.003140308961317236</v>
+        <v>0.003544344605150255</v>
       </c>
       <c r="T21">
-        <v>0.003140308961317236</v>
+        <v>0.003544344605150255</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N22">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O22">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P22">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q22">
-        <v>0.1180960798746667</v>
+        <v>0.37771904551</v>
       </c>
       <c r="R22">
-        <v>1.062864718872</v>
+        <v>3.39947140959</v>
       </c>
       <c r="S22">
-        <v>2.728581047151582E-05</v>
+        <v>2.911627434107761E-05</v>
       </c>
       <c r="T22">
-        <v>2.728581047151583E-05</v>
+        <v>2.911627434107761E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>21.533955</v>
       </c>
       <c r="O23">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P23">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q23">
-        <v>0.9202798862033332</v>
+        <v>1.63969582549</v>
       </c>
       <c r="R23">
-        <v>8.28251897583</v>
+        <v>14.75726242941</v>
       </c>
       <c r="S23">
-        <v>0.0002126284173220799</v>
+        <v>0.0001263950919563113</v>
       </c>
       <c r="T23">
-        <v>0.0002126284173220799</v>
+        <v>0.0001263950919563113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N24">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O24">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P24">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q24">
-        <v>0.04753938897400001</v>
+        <v>3.028815010347333</v>
       </c>
       <c r="R24">
-        <v>0.4278545007660001</v>
+        <v>27.259335093126</v>
       </c>
       <c r="S24">
-        <v>1.098385957309402E-05</v>
+        <v>0.0002334746151086312</v>
       </c>
       <c r="T24">
-        <v>1.098385957309402E-05</v>
+        <v>0.0002334746151086312</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N25">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O25">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P25">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q25">
-        <v>0.03594441084177778</v>
+        <v>0.079302462138</v>
       </c>
       <c r="R25">
-        <v>0.323499697576</v>
+        <v>0.7137221592420001</v>
       </c>
       <c r="S25">
-        <v>8.304868229156495E-06</v>
+        <v>6.112988664406118E-06</v>
       </c>
       <c r="T25">
-        <v>8.304868229156497E-06</v>
+        <v>6.112988664406118E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N26">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O26">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P26">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q26">
-        <v>0.3221510278751111</v>
+        <v>3.080135221221334</v>
       </c>
       <c r="R26">
-        <v>2.899359250876</v>
+        <v>27.721216990992</v>
       </c>
       <c r="S26">
-        <v>7.443220722595644E-05</v>
+        <v>0.0002374306066235197</v>
       </c>
       <c r="T26">
-        <v>7.443220722595644E-05</v>
+        <v>0.0002374306066235197</v>
       </c>
     </row>
   </sheetData>
